--- a/assets/demo/demofltmps.xlsx
+++ b/assets/demo/demofltmps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smith/Desktop/roboamodocs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smith/Development/dioxus_learn/roboamo/assets/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AC5923-4DF8-344B-AA27-F89F41FF8CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130BC365-8992-4441-B683-1A6B8B84DDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="520" windowWidth="35560" windowHeight="19480" xr2:uid="{FEFEC268-D947-9749-B3A7-E5938098C599}"/>
+    <workbookView xWindow="2140" yWindow="1060" windowWidth="35560" windowHeight="19480" xr2:uid="{FEFEC268-D947-9749-B3A7-E5938098C599}"/>
   </bookViews>
   <sheets>
     <sheet name="FLTPMS" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="158">
   <si>
     <t>         </t>
   </si>
@@ -185,30 +185,18 @@
     <t>   </t>
   </si>
   <si>
-    <t> 08/30/2023 </t>
-  </si>
-  <si>
     <t>ADC</t>
   </si>
   <si>
-    <t> 09/2025 </t>
-  </si>
-  <si>
     <t>AD3</t>
   </si>
   <si>
     <t> 06/2026 </t>
   </si>
   <si>
-    <t> 03/2025 </t>
-  </si>
-  <si>
     <t> 11/2026 </t>
   </si>
   <si>
-    <t> 12/2025 </t>
-  </si>
-  <si>
     <t>AWF2</t>
   </si>
   <si>
@@ -221,9 +209,6 @@
     <t> 12/29/2022 </t>
   </si>
   <si>
-    <t> 02/2026 </t>
-  </si>
-  <si>
     <t> 08/14/2008 </t>
   </si>
   <si>
@@ -275,27 +260,9 @@
     <t> 10/03/2018 </t>
   </si>
   <si>
-    <t> 10/2027 </t>
-  </si>
-  <si>
-    <t> 09/29/2022 </t>
-  </si>
-  <si>
-    <t> 02/24/2020 </t>
-  </si>
-  <si>
     <t>AT3</t>
   </si>
   <si>
-    <t> 09/22/2021 </t>
-  </si>
-  <si>
-    <t> 07/14/2020 </t>
-  </si>
-  <si>
-    <t> 09/24/2008 </t>
-  </si>
-  <si>
     <t> 04/2027 </t>
   </si>
   <si>
@@ -356,33 +323,6 @@
     <t> 06/11/2027 </t>
   </si>
   <si>
-    <t> 09/13/2022 </t>
-  </si>
-  <si>
-    <t> 09/20/2021 </t>
-  </si>
-  <si>
-    <t> 09/13/2019 </t>
-  </si>
-  <si>
-    <t> 06/19/2025 </t>
-  </si>
-  <si>
-    <t> 09/09/2022 </t>
-  </si>
-  <si>
-    <t> 10/03/2025 </t>
-  </si>
-  <si>
-    <t> 11/04/2023 </t>
-  </si>
-  <si>
-    <t> 07/24/2027 </t>
-  </si>
-  <si>
-    <t> 03/30/2027 </t>
-  </si>
-  <si>
     <t> 01/28/2014 </t>
   </si>
   <si>
@@ -393,9 +333,6 @@
   </si>
   <si>
     <t> 09/09/2019 </t>
-  </si>
-  <si>
-    <t> 08/21/2023 </t>
   </si>
   <si>
     <t> 10/31/2027 </t>
@@ -448,15 +385,6 @@
     <t> 09/25/2023 </t>
   </si>
   <si>
-    <t> 07/26/2021 </t>
-  </si>
-  <si>
-    <t> 10/2028 </t>
-  </si>
-  <si>
-    <t> 01/15/2013 </t>
-  </si>
-  <si>
     <t> 04/08/2025 </t>
   </si>
   <si>
@@ -514,30 +442,12 @@
     <t> 10/03/2027 </t>
   </si>
   <si>
-    <t> 04/30/2025 </t>
-  </si>
-  <si>
     <t> 05/19/2027 </t>
   </si>
   <si>
-    <t> 03/13/2024 </t>
-  </si>
-  <si>
     <t> 03/31/2028 </t>
   </si>
   <si>
-    <t> 04/24/2029 </t>
-  </si>
-  <si>
-    <t> 03/05/2029 </t>
-  </si>
-  <si>
-    <t> 09/19/2027 </t>
-  </si>
-  <si>
-    <t> 02/22/2028 </t>
-  </si>
-  <si>
     <t>ATAN</t>
   </si>
   <si>
@@ -553,97 +463,64 @@
     <t>AO1</t>
   </si>
   <si>
-    <t>AM3</t>
-  </si>
-  <si>
-    <t>AO3</t>
-  </si>
-  <si>
-    <t>AVCM</t>
-  </si>
-  <si>
-    <t>SMITH JOHN A</t>
-  </si>
-  <si>
-    <t>JOHNSON MARY D</t>
-  </si>
-  <si>
-    <t>BROWN LARRY E</t>
-  </si>
-  <si>
-    <t>JONES PETER F</t>
-  </si>
-  <si>
-    <t>MILLER NANCY G</t>
-  </si>
-  <si>
-    <t>DAVIS JASON H</t>
-  </si>
-  <si>
-    <t>WILSON ANGELA I</t>
-  </si>
-  <si>
-    <t>TAYLOR KEVIN J</t>
-  </si>
-  <si>
-    <t>THOMAS SANDRA K</t>
-  </si>
-  <si>
-    <t>MOORE RON L</t>
-  </si>
-  <si>
-    <t>JACKSON EMILY M</t>
-  </si>
-  <si>
-    <t>WHITE FRANK N</t>
-  </si>
-  <si>
-    <t>HARRIS OLIVIA O</t>
-  </si>
-  <si>
-    <t>MARTIN GREG P</t>
-  </si>
-  <si>
-    <t>LEE KAREN Q</t>
-  </si>
-  <si>
-    <t>YOUNG SUE S</t>
-  </si>
-  <si>
-    <t>ALLEN RICK T</t>
-  </si>
-  <si>
-    <t>KING MEGAN U</t>
-  </si>
-  <si>
-    <t>WRIGHT DAN V</t>
-  </si>
-  <si>
-    <t>SCOTT TINA W</t>
-  </si>
-  <si>
-    <t>GREEN PAUL X</t>
-  </si>
-  <si>
-    <t>BAKER LISA Y</t>
-  </si>
-  <si>
-    <t>NELSON ERIC Z</t>
-  </si>
-  <si>
-    <t>CARTER NINA A</t>
-  </si>
-  <si>
-    <t>MITCHELL OMAR B</t>
-  </si>
-  <si>
-    <t>COLLINS MARK D</t>
-  </si>
-  <si>
     <t>xxxx</t>
   </si>
   <si>
     <t>NXXXXX</t>
+  </si>
+  <si>
+    <t>BAINBRIDGE SANDRA F</t>
+  </si>
+  <si>
+    <t>BOXING JAMES A</t>
+  </si>
+  <si>
+    <t>GRIDLEY MICHAEL R</t>
+  </si>
+  <si>
+    <t>HANCOCK PATRICIA L</t>
+  </si>
+  <si>
+    <t>HULL ISAAC A</t>
+  </si>
+  <si>
+    <t>INDIANA CHRISTOPHER B</t>
+  </si>
+  <si>
+    <t>JONES BARBARA C</t>
+  </si>
+  <si>
+    <t>KING ERIC Y</t>
+  </si>
+  <si>
+    <t>MIDWAY MATTHEW R</t>
+  </si>
+  <si>
+    <t>MONTANA JOSHUA M</t>
+  </si>
+  <si>
+    <t>NIMITZ CHESTER U</t>
+  </si>
+  <si>
+    <t>NORTH SANDRA S</t>
+  </si>
+  <si>
+    <t>PREBLE CAROL I</t>
+  </si>
+  <si>
+    <t>SARATOGA JEFFREY W</t>
+  </si>
+  <si>
+    <t>SIMS ERIC D</t>
+  </si>
+  <si>
+    <t>SOUTH MATTHEW R</t>
+  </si>
+  <si>
+    <t>WAINWRIGHT CHRISTOPHER B</t>
+  </si>
+  <si>
+    <t>WARD JOSHUA M</t>
   </si>
 </sst>
 </file>
@@ -913,22 +790,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -937,30 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -982,6 +822,43 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1550,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA699E-AB37-6847-B283-31A560ADC509}">
-  <dimension ref="A1:AJ66"/>
+  <dimension ref="A1:AJ58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1586,620 +1463,620 @@
   <sheetData>
     <row r="1" spans="1:36" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
       <c r="AJ7" s="3"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="32"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
     </row>
     <row r="10" spans="1:36" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="AJ10" s="32"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="AJ10" s="20"/>
     </row>
     <row r="11" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="38" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="AJ11" s="32"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="AJ11" s="20"/>
     </row>
     <row r="12" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="AJ12" s="32"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="AJ12" s="20"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="AJ13" s="32"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="AJ13" s="20"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="AJ14" s="32"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="AJ14" s="20"/>
     </row>
     <row r="15" spans="1:36" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="AJ15" s="32"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="AJ15" s="20"/>
     </row>
     <row r="16" spans="1:36" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="AJ16" s="32"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="AJ16" s="20"/>
     </row>
     <row r="17" spans="1:36" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
-      <c r="B17" s="41" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="AJ17" s="32"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="AJ17" s="20"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="AJ18" s="32"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="AJ18" s="20"/>
     </row>
     <row r="19" spans="1:36" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32"/>
-      <c r="B19" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="AJ19" s="32"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="AJ19" s="20"/>
     </row>
     <row r="20" spans="1:36" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="AJ20" s="32"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="AJ20" s="20"/>
     </row>
     <row r="21" spans="1:36" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="AJ21" s="32"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="AJ21" s="20"/>
     </row>
     <row r="22" spans="1:36" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
     </row>
     <row r="23" spans="1:36" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
     </row>
     <row r="25" spans="1:36" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="32"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="20"/>
     </row>
     <row r="26" spans="1:36" ht="12" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="41" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="5"/>
@@ -2215,85 +2092,85 @@
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="26" t="s">
+      <c r="M26" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N26" s="26" t="s">
+      <c r="N26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O26" s="26" t="s">
+      <c r="O26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P26" s="26" t="s">
+      <c r="P26" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Q26" s="26" t="s">
+      <c r="Q26" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="26" t="s">
+      <c r="R26" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="S26" s="26" t="s">
+      <c r="S26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T26" s="26" t="s">
+      <c r="T26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="U26" s="26" t="s">
+      <c r="U26" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="V26" s="26" t="s">
+      <c r="V26" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W26" s="26" t="s">
+      <c r="W26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="X26" s="26" t="s">
+      <c r="X26" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Y26" s="26" t="s">
+      <c r="Y26" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Z26" s="26" t="s">
+      <c r="Z26" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AA26" s="26" t="s">
+      <c r="AA26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AB26" s="26" t="s">
+      <c r="AB26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AC26" s="26" t="s">
+      <c r="AC26" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AD26" s="26" t="s">
+      <c r="AD26" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AE26" s="29" t="s">
+      <c r="AE26" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AF26" s="26" t="s">
+      <c r="AF26" s="21" t="s">
         <v>30</v>
       </c>
       <c r="AG26" s="6"/>
       <c r="AH26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AI26" s="26" t="s">
+      <c r="AI26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AJ26" s="32"/>
+      <c r="AJ26" s="20"/>
     </row>
     <row r="27" spans="1:36" ht="12" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="42"/>
       <c r="F27" s="9" t="s">
         <v>35</v>
       </c>
@@ -2315,45 +2192,45 @@
       <c r="L27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="27"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="22"/>
       <c r="AG27" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AH27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AI27" s="27"/>
-      <c r="AJ27" s="32"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="20"/>
     </row>
     <row r="28" spans="1:36" ht="12" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="11" t="s">
         <v>41</v>
       </c>
@@ -2375,114 +2252,114 @@
       <c r="L28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="28"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="23"/>
       <c r="AG28" s="11" t="s">
         <v>46</v>
       </c>
       <c r="AH28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="32"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="20"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
-      <c r="AE29" s="21"/>
-      <c r="AF29" s="21"/>
-      <c r="AG29" s="21"/>
-      <c r="AH29" s="21"/>
-      <c r="AI29" s="23"/>
-      <c r="AJ29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="20"/>
     </row>
     <row r="30" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q30" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R30" s="15" t="s">
         <v>48</v>
@@ -2521,10 +2398,10 @@
         <v>48</v>
       </c>
       <c r="AD30" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AE30" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AF30" s="15"/>
       <c r="AG30" s="14"/>
@@ -2532,45 +2409,45 @@
         <v>48</v>
       </c>
       <c r="AI30" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ30" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ30" s="20"/>
     </row>
     <row r="31" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="18"/>
       <c r="E31" s="19" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
@@ -2585,54 +2462,54 @@
       <c r="AB31" s="15"/>
       <c r="AC31" s="15"/>
       <c r="AD31" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AE31" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AF31" s="15"/>
       <c r="AG31" s="14"/>
       <c r="AH31" s="15"/>
       <c r="AI31" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ31" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ31" s="20"/>
     </row>
     <row r="32" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="12" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="18"/>
       <c r="E32" s="19" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q32" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
@@ -2647,54 +2524,54 @@
       <c r="AB32" s="15"/>
       <c r="AC32" s="15"/>
       <c r="AD32" s="15" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AE32" s="14" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AF32" s="15"/>
       <c r="AG32" s="14"/>
       <c r="AH32" s="15"/>
       <c r="AI32" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ32" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ32" s="20"/>
     </row>
     <row r="33" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="12" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="18"/>
       <c r="E33" s="19" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M33" s="15"/>
       <c r="N33" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q33" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
@@ -2709,60 +2586,60 @@
       <c r="AB33" s="15"/>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AE33" s="14" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="AF33" s="15"/>
       <c r="AG33" s="14"/>
       <c r="AH33" s="15"/>
       <c r="AI33" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ33" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ33" s="20"/>
     </row>
     <row r="34" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="18"/>
       <c r="E34" s="19" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="M34" s="15"/>
       <c r="N34" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q34" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
@@ -2775,54 +2652,54 @@
       <c r="AB34" s="15"/>
       <c r="AC34" s="15"/>
       <c r="AD34" s="15" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AE34" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AF34" s="15"/>
       <c r="AG34" s="14"/>
       <c r="AH34" s="15"/>
       <c r="AI34" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ34" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ34" s="20"/>
     </row>
     <row r="35" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="12" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="18"/>
       <c r="E35" s="19" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="M35" s="15"/>
       <c r="N35" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="P35" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q35" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
@@ -2837,54 +2714,54 @@
       <c r="AB35" s="15"/>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AE35" s="14" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="AF35" s="15"/>
       <c r="AG35" s="14"/>
       <c r="AH35" s="15"/>
       <c r="AI35" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ35" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ35" s="20"/>
     </row>
     <row r="36" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="18"/>
       <c r="E36" s="19" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="M36" s="15"/>
       <c r="N36" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q36" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
@@ -2899,41 +2776,41 @@
       <c r="AB36" s="15"/>
       <c r="AC36" s="15"/>
       <c r="AD36" s="15" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AE36" s="14" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="AF36" s="15"/>
       <c r="AG36" s="14"/>
       <c r="AH36" s="15"/>
       <c r="AI36" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ36" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ36" s="20"/>
     </row>
     <row r="37" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="18"/>
       <c r="E37" s="19" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="M37" s="15"/>
       <c r="N37" s="15" t="s">
@@ -2941,10 +2818,10 @@
       </c>
       <c r="O37" s="15"/>
       <c r="P37" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q37" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
@@ -2959,54 +2836,54 @@
       <c r="AB37" s="15"/>
       <c r="AC37" s="15"/>
       <c r="AD37" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AE37" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AF37" s="15"/>
       <c r="AG37" s="14"/>
       <c r="AH37" s="15"/>
       <c r="AI37" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ37" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ37" s="20"/>
     </row>
     <row r="38" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="12" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="18"/>
       <c r="E38" s="19" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O38" s="15"/>
       <c r="P38" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q38" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
@@ -3021,44 +2898,44 @@
       <c r="AB38" s="15"/>
       <c r="AC38" s="15"/>
       <c r="AD38" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="AE38" s="14" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="AF38" s="15"/>
       <c r="AG38" s="14"/>
       <c r="AH38" s="15"/>
       <c r="AI38" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ38" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ38" s="20"/>
     </row>
     <row r="39" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="18"/>
       <c r="E39" s="19" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="N39" s="15" t="s">
         <v>48</v>
@@ -3066,7 +2943,7 @@
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
@@ -3081,54 +2958,54 @@
       <c r="AB39" s="15"/>
       <c r="AC39" s="15"/>
       <c r="AD39" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE39" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AF39" s="15"/>
       <c r="AG39" s="14"/>
       <c r="AH39" s="15"/>
       <c r="AI39" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ39" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ39" s="20"/>
     </row>
     <row r="40" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="12" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="18"/>
       <c r="E40" s="19" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="N40" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O40" s="15"/>
       <c r="P40" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q40" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
@@ -3143,51 +3020,51 @@
       <c r="AB40" s="15"/>
       <c r="AC40" s="15"/>
       <c r="AD40" s="15" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="AE40" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF40" s="15"/>
       <c r="AG40" s="14"/>
       <c r="AH40" s="15"/>
       <c r="AI40" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ40" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ40" s="20"/>
     </row>
     <row r="41" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="18"/>
       <c r="E41" s="19" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="N41" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O41" s="15"/>
       <c r="P41" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
@@ -3203,51 +3080,51 @@
       <c r="AB41" s="15"/>
       <c r="AC41" s="15"/>
       <c r="AD41" s="15" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AE41" s="14" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="AF41" s="15"/>
       <c r="AG41" s="14"/>
       <c r="AH41" s="15"/>
       <c r="AI41" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ41" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ41" s="20"/>
     </row>
     <row r="42" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="18"/>
       <c r="E42" s="19" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="N42" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O42" s="15"/>
       <c r="P42" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
@@ -3263,54 +3140,54 @@
       <c r="AB42" s="15"/>
       <c r="AC42" s="15"/>
       <c r="AD42" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AE42" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AF42" s="15"/>
       <c r="AG42" s="14"/>
       <c r="AH42" s="15"/>
       <c r="AI42" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ42" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ42" s="20"/>
     </row>
     <row r="43" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="18"/>
       <c r="E43" s="19" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="N43" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O43" s="15"/>
       <c r="P43" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q43" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
@@ -3325,56 +3202,56 @@
       <c r="AB43" s="15"/>
       <c r="AC43" s="15"/>
       <c r="AD43" s="15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AE43" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF43" s="15"/>
       <c r="AG43" s="14"/>
       <c r="AH43" s="15"/>
       <c r="AI43" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ43" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ43" s="20"/>
     </row>
     <row r="44" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="18"/>
       <c r="E44" s="19" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="N44" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q44" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
@@ -3389,56 +3266,56 @@
       <c r="AB44" s="15"/>
       <c r="AC44" s="15"/>
       <c r="AD44" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE44" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AF44" s="15"/>
       <c r="AG44" s="14"/>
       <c r="AH44" s="15"/>
       <c r="AI44" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ44" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ44" s="20"/>
     </row>
     <row r="45" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="18"/>
       <c r="E45" s="19" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="M45" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="N45" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q45" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
@@ -3453,56 +3330,56 @@
       <c r="AB45" s="15"/>
       <c r="AC45" s="15"/>
       <c r="AD45" s="15" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AE45" s="14" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="AF45" s="15"/>
       <c r="AG45" s="14"/>
       <c r="AH45" s="15"/>
       <c r="AI45" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ45" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ45" s="20"/>
     </row>
     <row r="46" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="12" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="18"/>
       <c r="E46" s="19" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="N46" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q46" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
@@ -3517,56 +3394,56 @@
       <c r="AB46" s="15"/>
       <c r="AC46" s="15"/>
       <c r="AD46" s="15" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="AE46" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="AF46" s="15"/>
       <c r="AG46" s="14"/>
       <c r="AH46" s="15"/>
       <c r="AI46" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ46" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="AJ46" s="20"/>
     </row>
     <row r="47" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="12" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="18"/>
       <c r="E47" s="19" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
       <c r="K47" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="N47" s="15" t="s">
         <v>48</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="P47" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q47" s="15" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
@@ -3581,121 +3458,75 @@
       <c r="AB47" s="15"/>
       <c r="AC47" s="15"/>
       <c r="AD47" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AE47" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AF47" s="15"/>
       <c r="AG47" s="14"/>
       <c r="AH47" s="15"/>
       <c r="AI47" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ47" s="32"/>
-    </row>
-    <row r="48" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="32"/>
-      <c r="B48" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="L48" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="N48" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O48" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="P48" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q48" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
-      <c r="AC48" s="15"/>
-      <c r="AD48" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE48" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF48" s="15"/>
-      <c r="AG48" s="14"/>
-      <c r="AH48" s="15"/>
-      <c r="AI48" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ48" s="32"/>
-    </row>
-    <row r="49" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="32"/>
-      <c r="B49" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G49" s="17"/>
+        <v>139</v>
+      </c>
+      <c r="AJ47" s="20"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A48" s="20"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="32"/>
+      <c r="AF48" s="32"/>
+      <c r="AG48" s="32"/>
+      <c r="AH48" s="32"/>
+      <c r="AI48" s="34"/>
+      <c r="AJ48" s="20"/>
+    </row>
+    <row r="49" spans="1:36" ht="13" x14ac:dyDescent="0.15">
+      <c r="A49" s="20"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
-      <c r="K49" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="L49" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="N49" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O49" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="P49" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q49" s="15" t="s">
-        <v>197</v>
-      </c>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
       <c r="T49" s="15"/>
@@ -3708,58 +3539,32 @@
       <c r="AA49" s="15"/>
       <c r="AB49" s="15"/>
       <c r="AC49" s="15"/>
-      <c r="AD49" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE49" s="14" t="s">
-        <v>133</v>
-      </c>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="14"/>
       <c r="AF49" s="15"/>
       <c r="AG49" s="14"/>
       <c r="AH49" s="15"/>
-      <c r="AI49" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ49" s="32"/>
-    </row>
-    <row r="50" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
-      <c r="B50" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" s="17"/>
+      <c r="AI49" s="15"/>
+      <c r="AJ49" s="20"/>
+    </row>
+    <row r="50" spans="1:36" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="20"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
-      <c r="K50" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="L50" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="M50" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="N50" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O50" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="P50" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q50" s="15" t="s">
-        <v>197</v>
-      </c>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
       <c r="R50" s="15"/>
       <c r="S50" s="15"/>
       <c r="T50" s="15"/>
@@ -3772,58 +3577,32 @@
       <c r="AA50" s="15"/>
       <c r="AB50" s="15"/>
       <c r="AC50" s="15"/>
-      <c r="AD50" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE50" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="14"/>
       <c r="AF50" s="15"/>
       <c r="AG50" s="14"/>
       <c r="AH50" s="15"/>
-      <c r="AI50" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ50" s="32"/>
-    </row>
-    <row r="51" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="32"/>
-      <c r="B51" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G51" s="17"/>
+      <c r="AI50" s="15"/>
+      <c r="AJ50" s="20"/>
+    </row>
+    <row r="51" spans="1:36" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="20"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
-      <c r="K51" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="L51" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="N51" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O51" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="P51" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q51" s="15" t="s">
-        <v>197</v>
-      </c>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
       <c r="R51" s="15"/>
       <c r="S51" s="15"/>
       <c r="T51" s="15"/>
@@ -3836,58 +3615,32 @@
       <c r="AA51" s="15"/>
       <c r="AB51" s="15"/>
       <c r="AC51" s="15"/>
-      <c r="AD51" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE51" s="14" t="s">
-        <v>81</v>
-      </c>
+      <c r="AD51" s="15"/>
+      <c r="AE51" s="14"/>
       <c r="AF51" s="15"/>
       <c r="AG51" s="14"/>
       <c r="AH51" s="15"/>
-      <c r="AI51" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ51" s="32"/>
-    </row>
-    <row r="52" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="32"/>
-      <c r="B52" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G52" s="17"/>
+      <c r="AI51" s="15"/>
+      <c r="AJ51" s="20"/>
+    </row>
+    <row r="52" spans="1:36" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52" s="20"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
-      <c r="K52" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="L52" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="N52" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O52" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="P52" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q52" s="15" t="s">
-        <v>197</v>
-      </c>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
       <c r="R52" s="15"/>
       <c r="S52" s="15"/>
       <c r="T52" s="15"/>
@@ -3900,58 +3653,32 @@
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
       <c r="AC52" s="15"/>
-      <c r="AD52" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE52" s="14" t="s">
-        <v>135</v>
-      </c>
+      <c r="AD52" s="15"/>
+      <c r="AE52" s="14"/>
       <c r="AF52" s="15"/>
       <c r="AG52" s="14"/>
       <c r="AH52" s="15"/>
-      <c r="AI52" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ52" s="32"/>
-    </row>
-    <row r="53" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="32"/>
-      <c r="B53" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G53" s="17"/>
+      <c r="AI52" s="15"/>
+      <c r="AJ52" s="20"/>
+    </row>
+    <row r="53" spans="1:36" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53" s="20"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
-      <c r="K53" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="L53" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="M53" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="N53" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O53" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="P53" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q53" s="15" t="s">
-        <v>197</v>
-      </c>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
       <c r="R53" s="15"/>
       <c r="S53" s="15"/>
       <c r="T53" s="15"/>
@@ -3964,58 +3691,32 @@
       <c r="AA53" s="15"/>
       <c r="AB53" s="15"/>
       <c r="AC53" s="15"/>
-      <c r="AD53" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE53" s="14" t="s">
-        <v>83</v>
-      </c>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="14"/>
       <c r="AF53" s="15"/>
       <c r="AG53" s="14"/>
       <c r="AH53" s="15"/>
-      <c r="AI53" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ53" s="32"/>
-    </row>
-    <row r="54" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G54" s="17"/>
+      <c r="AI53" s="15"/>
+      <c r="AJ53" s="20"/>
+    </row>
+    <row r="54" spans="1:36" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="20"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
-      <c r="K54" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L54" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M54" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="N54" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O54" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="P54" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q54" s="15" t="s">
-        <v>197</v>
-      </c>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
       <c r="R54" s="15"/>
       <c r="S54" s="15"/>
       <c r="T54" s="15"/>
@@ -4028,58 +3729,32 @@
       <c r="AA54" s="15"/>
       <c r="AB54" s="15"/>
       <c r="AC54" s="15"/>
-      <c r="AD54" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE54" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="14"/>
       <c r="AF54" s="15"/>
       <c r="AG54" s="14"/>
       <c r="AH54" s="15"/>
-      <c r="AI54" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ54" s="32"/>
-    </row>
-    <row r="55" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="32"/>
-      <c r="B55" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G55" s="17"/>
+      <c r="AI54" s="15"/>
+      <c r="AJ54" s="20"/>
+    </row>
+    <row r="55" spans="1:36" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="20"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
-      <c r="K55" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="L55" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="M55" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="N55" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O55" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="P55" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q55" s="15" t="s">
-        <v>197</v>
-      </c>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
       <c r="R55" s="15"/>
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
@@ -4092,60 +3767,54 @@
       <c r="AA55" s="15"/>
       <c r="AB55" s="15"/>
       <c r="AC55" s="15"/>
-      <c r="AD55" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE55" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="14"/>
       <c r="AF55" s="15"/>
       <c r="AG55" s="14"/>
       <c r="AH55" s="15"/>
-      <c r="AI55" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ55" s="32"/>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A56" s="32"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="21"/>
-      <c r="AB56" s="21"/>
-      <c r="AC56" s="21"/>
-      <c r="AD56" s="21"/>
-      <c r="AE56" s="21"/>
-      <c r="AF56" s="21"/>
-      <c r="AG56" s="21"/>
-      <c r="AH56" s="21"/>
-      <c r="AI56" s="23"/>
-      <c r="AJ56" s="32"/>
+      <c r="AI55" s="15"/>
+      <c r="AJ55" s="20"/>
+    </row>
+    <row r="56" spans="1:36" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56" s="20"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="14"/>
+      <c r="AF56" s="15"/>
+      <c r="AG56" s="14"/>
+      <c r="AH56" s="15"/>
+      <c r="AI56" s="15"/>
+      <c r="AJ56" s="20"/>
     </row>
     <row r="57" spans="1:36" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="32"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
       <c r="D57" s="14"/>
@@ -4180,352 +3849,84 @@
       <c r="AG57" s="14"/>
       <c r="AH57" s="15"/>
       <c r="AI57" s="15"/>
-      <c r="AJ57" s="32"/>
-    </row>
-    <row r="58" spans="1:36" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="32"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
-      <c r="X58" s="15"/>
-      <c r="Y58" s="15"/>
-      <c r="Z58" s="15"/>
-      <c r="AA58" s="15"/>
-      <c r="AB58" s="15"/>
-      <c r="AC58" s="15"/>
-      <c r="AD58" s="15"/>
-      <c r="AE58" s="14"/>
-      <c r="AF58" s="15"/>
-      <c r="AG58" s="14"/>
-      <c r="AH58" s="15"/>
-      <c r="AI58" s="15"/>
-      <c r="AJ58" s="32"/>
-    </row>
-    <row r="59" spans="1:36" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="32"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
-      <c r="X59" s="15"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="15"/>
-      <c r="AA59" s="15"/>
-      <c r="AB59" s="15"/>
-      <c r="AC59" s="15"/>
-      <c r="AD59" s="15"/>
-      <c r="AE59" s="14"/>
-      <c r="AF59" s="15"/>
-      <c r="AG59" s="14"/>
-      <c r="AH59" s="15"/>
-      <c r="AI59" s="15"/>
-      <c r="AJ59" s="32"/>
-    </row>
-    <row r="60" spans="1:36" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="32"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="15"/>
-      <c r="AA60" s="15"/>
-      <c r="AB60" s="15"/>
-      <c r="AC60" s="15"/>
-      <c r="AD60" s="15"/>
-      <c r="AE60" s="14"/>
-      <c r="AF60" s="15"/>
-      <c r="AG60" s="14"/>
-      <c r="AH60" s="15"/>
-      <c r="AI60" s="15"/>
-      <c r="AJ60" s="32"/>
-    </row>
-    <row r="61" spans="1:36" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="32"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="15"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="15"/>
-      <c r="AA61" s="15"/>
-      <c r="AB61" s="15"/>
-      <c r="AC61" s="15"/>
-      <c r="AD61" s="15"/>
-      <c r="AE61" s="14"/>
-      <c r="AF61" s="15"/>
-      <c r="AG61" s="14"/>
-      <c r="AH61" s="15"/>
-      <c r="AI61" s="15"/>
-      <c r="AJ61" s="32"/>
-    </row>
-    <row r="62" spans="1:36" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="32"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="15"/>
-      <c r="AA62" s="15"/>
-      <c r="AB62" s="15"/>
-      <c r="AC62" s="15"/>
-      <c r="AD62" s="15"/>
-      <c r="AE62" s="14"/>
-      <c r="AF62" s="15"/>
-      <c r="AG62" s="14"/>
-      <c r="AH62" s="15"/>
-      <c r="AI62" s="15"/>
-      <c r="AJ62" s="32"/>
-    </row>
-    <row r="63" spans="1:36" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="32"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="15"/>
-      <c r="AB63" s="15"/>
-      <c r="AC63" s="15"/>
-      <c r="AD63" s="15"/>
-      <c r="AE63" s="14"/>
-      <c r="AF63" s="15"/>
-      <c r="AG63" s="14"/>
-      <c r="AH63" s="15"/>
-      <c r="AI63" s="15"/>
-      <c r="AJ63" s="32"/>
-    </row>
-    <row r="64" spans="1:36" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="32"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="15"/>
-      <c r="AA64" s="15"/>
-      <c r="AB64" s="15"/>
-      <c r="AC64" s="15"/>
-      <c r="AD64" s="15"/>
-      <c r="AE64" s="14"/>
-      <c r="AF64" s="15"/>
-      <c r="AG64" s="14"/>
-      <c r="AH64" s="15"/>
-      <c r="AI64" s="15"/>
-      <c r="AJ64" s="32"/>
-    </row>
-    <row r="65" spans="1:36" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="32"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="15"/>
-      <c r="AA65" s="15"/>
-      <c r="AB65" s="15"/>
-      <c r="AC65" s="15"/>
-      <c r="AD65" s="15"/>
-      <c r="AE65" s="14"/>
-      <c r="AF65" s="15"/>
-      <c r="AG65" s="14"/>
-      <c r="AH65" s="15"/>
-      <c r="AI65" s="15"/>
-      <c r="AJ65" s="32"/>
-    </row>
-    <row r="66" spans="1:36" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="25"/>
-      <c r="R66" s="25"/>
-      <c r="S66" s="25"/>
-      <c r="T66" s="25"/>
-      <c r="U66" s="25"/>
-      <c r="V66" s="25"/>
-      <c r="W66" s="25"/>
-      <c r="X66" s="25"/>
-      <c r="Y66" s="25"/>
-      <c r="Z66" s="25"/>
-      <c r="AA66" s="25"/>
-      <c r="AB66" s="25"/>
-      <c r="AC66" s="25"/>
-      <c r="AD66" s="25"/>
-      <c r="AE66" s="25"/>
-      <c r="AF66" s="25"/>
-      <c r="AG66" s="25"/>
-      <c r="AH66" s="25"/>
-      <c r="AI66" s="25"/>
-      <c r="AJ66" s="25"/>
+      <c r="AJ57" s="20"/>
+    </row>
+    <row r="58" spans="1:36" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="36"/>
+      <c r="V58" s="36"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="36"/>
+      <c r="Z58" s="36"/>
+      <c r="AA58" s="36"/>
+      <c r="AB58" s="36"/>
+      <c r="AC58" s="36"/>
+      <c r="AD58" s="36"/>
+      <c r="AE58" s="36"/>
+      <c r="AF58" s="36"/>
+      <c r="AG58" s="36"/>
+      <c r="AH58" s="36"/>
+      <c r="AI58" s="36"/>
+      <c r="AJ58" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B29:AI29"/>
+    <mergeCell ref="B48:AI48"/>
+    <mergeCell ref="A58:AJ58"/>
+    <mergeCell ref="AB26:AB28"/>
+    <mergeCell ref="AC26:AC28"/>
+    <mergeCell ref="AD26:AD28"/>
+    <mergeCell ref="AE26:AE28"/>
+    <mergeCell ref="AF26:AF28"/>
+    <mergeCell ref="A10:A57"/>
+    <mergeCell ref="AJ10:AJ57"/>
+    <mergeCell ref="B25:AI25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="B22:AI22"/>
+    <mergeCell ref="A8:AJ8"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="A9:AJ9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="A3:AJ3"/>
+    <mergeCell ref="B4:AI4"/>
+    <mergeCell ref="B5:AI5"/>
+    <mergeCell ref="A6:AJ6"/>
+    <mergeCell ref="B7:AI7"/>
     <mergeCell ref="B23:AI23"/>
     <mergeCell ref="B24:AI24"/>
     <mergeCell ref="X26:X28"/>
@@ -4542,42 +3943,6 @@
     <mergeCell ref="R26:R28"/>
     <mergeCell ref="S26:S28"/>
     <mergeCell ref="AI26:AI28"/>
-    <mergeCell ref="A3:AJ3"/>
-    <mergeCell ref="B4:AI4"/>
-    <mergeCell ref="B5:AI5"/>
-    <mergeCell ref="A6:AJ6"/>
-    <mergeCell ref="B7:AI7"/>
-    <mergeCell ref="A8:AJ8"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="A9:AJ9"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B29:AI29"/>
-    <mergeCell ref="B56:AI56"/>
-    <mergeCell ref="A66:AJ66"/>
-    <mergeCell ref="AB26:AB28"/>
-    <mergeCell ref="AC26:AC28"/>
-    <mergeCell ref="AD26:AD28"/>
-    <mergeCell ref="AE26:AE28"/>
-    <mergeCell ref="AF26:AF28"/>
-    <mergeCell ref="A10:A65"/>
-    <mergeCell ref="AJ10:AJ65"/>
-    <mergeCell ref="B25:AI25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="B22:AI22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
